--- a/flows/SRLN_fund_flow_data.xlsx
+++ b/flows/SRLN_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2750"/>
+  <dimension ref="A1:B2762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27935,6 +27935,126 @@
         <v>33.636326</v>
       </c>
     </row>
+    <row r="2751">
+      <c r="A2751" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2752">
+      <c r="A2752" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2752" t="n">
+        <v>18.926567</v>
+      </c>
+    </row>
+    <row r="2753">
+      <c r="A2753" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2753" t="n">
+        <v>58.540203</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2754" t="n">
+        <v>2.091997</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2756" t="n">
+        <v>16.758516</v>
+      </c>
+    </row>
+    <row r="2757">
+      <c r="A2757" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2757" t="n">
+        <v>8.385477</v>
+      </c>
+    </row>
+    <row r="2758">
+      <c r="A2758" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2758" t="n">
+        <v>8.392234999999999</v>
+      </c>
+    </row>
+    <row r="2759">
+      <c r="A2759" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2760">
+      <c r="A2760" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2760" t="n">
+        <v>29.397892</v>
+      </c>
+    </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2761" t="n">
+        <v>25.209038</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2762" t="n">
+        <v>6.303988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
